--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -34,10 +34,10 @@
     <x:t>GetFormattedString()</x:t>
   </x:si>
   <x:si>
-    <x:t>02.09.2010 0:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2010-сен-02</x:t>
+    <x:t>9/2/2010 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2010-Sep-02</x:t>
   </x:si>
   <x:si>
     <x:t>True</x:t>
@@ -46,7 +46,7 @@
     <x:t>1234.567</x:t>
   </x:si>
   <x:si>
-    <x:t>1 234.57</x:t>
+    <x:t>1,234.57</x:t>
   </x:si>
   <x:si>
     <x:t>Test Case</x:t>
@@ -463,7 +463,7 @@
     <x:col min="3" max="3" width="11.7" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.55" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="20.84" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.7" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.7" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="21.98" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -455,16 +455,15 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="8" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.7" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.55" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.84" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.7" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="21.98" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.700625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.550625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="21.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -111,7 +111,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -130,8 +130,26 @@
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -154,6 +172,30 @@
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -467,122 +509,122 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="D2" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="E2" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="F2" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
+      <x:c r="G2" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="B3" s="2">
+      <x:c r="B3" s="7">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="C3" s="3">
+      <x:c r="C3" s="8">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="D3" s="3">
+      <x:c r="D3" s="8">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="E3" s="3">
+      <x:c r="E3" s="8">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="F3" s="9" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="G3" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="B4" s="0" t="b">
+      <x:c r="B4" s="9" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="b">
+      <x:c r="C4" s="9" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="b">
+      <x:c r="D4" s="9" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="b">
+      <x:c r="E4" s="9" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="F4" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="G4" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="B5" s="4" t="n">
+      <x:c r="B5" s="10" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="9" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="9" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="9" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="F5" s="9" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="G5" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="D6" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E6" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="F6" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="G6" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="B7" s="5" t="n">
+      <x:c r="B7" s="11" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="C7" s="5" t="n">
+      <x:c r="C7" s="11" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="D7" s="5" t="n">
+      <x:c r="D7" s="11" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="E7" s="5" t="n">
+      <x:c r="E7" s="11" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="F7" s="5" t="n">
+      <x:c r="F7" s="11" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="G7" s="5" t="n">
+      <x:c r="G7" s="11" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -111,7 +111,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -130,26 +130,8 @@
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -172,30 +154,6 @@
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -509,122 +467,122 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">
-      <x:c r="B2" s="6" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="6" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="6" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="6" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="6" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="6" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="B3" s="7">
+      <x:c r="B3" s="2">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="C3" s="8">
+      <x:c r="C3" s="3">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="D3" s="8">
+      <x:c r="D3" s="3">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="E3" s="8">
+      <x:c r="E3" s="3">
         <x:v>40423</x:v>
       </x:c>
-      <x:c r="F3" s="9" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G3" s="9" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="B4" s="9" t="b">
+      <x:c r="B4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C4" s="9" t="b">
+      <x:c r="C4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="9" t="b">
+      <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="9" t="b">
+      <x:c r="E4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="9" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G4" s="9" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="B5" s="10" t="n">
+      <x:c r="B5" s="4" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="C5" s="9" t="n">
+      <x:c r="C5" s="0" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="D5" s="9" t="n">
+      <x:c r="D5" s="0" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="E5" s="9" t="n">
+      <x:c r="E5" s="0" t="n">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="F5" s="9" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G5" s="9" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="B6" s="9" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C6" s="9" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="9" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E6" s="9" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F6" s="9" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G6" s="9" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="B7" s="11" t="n">
+      <x:c r="B7" s="5" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="C7" s="11" t="n">
+      <x:c r="C7" s="5" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="D7" s="11" t="n">
+      <x:c r="D7" s="5" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="E7" s="11" t="n">
+      <x:c r="E7" s="5" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="F7" s="11" t="n">
+      <x:c r="F7" s="5" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="G7" s="11" t="n">
+      <x:c r="G7" s="5" t="n">
         <x:v>1.10538194444444</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -590,14 +590,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -458,12 +458,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.700625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.550625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.840625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.700625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="21.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="22.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -458,11 +458,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="7" width="22.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.085625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.085625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="22.10125" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="22.085625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -458,12 +458,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.085625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.085625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="22.10125" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="22.085625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.700625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.840625000000001" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.130625000000002" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="22.130625000000002" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -61,7 +61,7 @@
     <x:numFmt numFmtId="1" formatCode="yyyy-MMM-dd"/>
     <x:numFmt numFmtId="2" formatCode="#,##0.00"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -71,6 +71,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -460,7 +460,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:G7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -465,12 +465,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.700625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.840625000000001" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.130625000000002" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.700625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="22.130625000000002" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.920625000000001" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.250625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.660625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.270625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.560625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -119,47 +119,47 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -466,7 +466,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.920625000000001" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.920625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.250625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="19.660625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="21.270625" style="0" customWidth="1"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -58,8 +58,8 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="yyyy-MMM-dd"/>
-    <x:numFmt numFmtId="2" formatCode="#,##0.00"/>
+    <x:numFmt numFmtId="165" formatCode="yyyy-MMM-dd"/>
+    <x:numFmt numFmtId="166" formatCode="#,##0.00"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -125,13 +125,13 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -147,7 +147,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -155,7 +155,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
